--- a/Documents/SE1606_SWP391_Online Shop_Weekly Report_W8.xlsx
+++ b/Documents/SE1606_SWP391_Online Shop_Weekly Report_W8.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FEC3A7-51B9-4A3B-98FB-C668F21ECCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W2" sheetId="1" state="hidden" r:id="rId1"/>
@@ -16,12 +17,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0">
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -78,12 +79,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0">
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -140,12 +141,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -171,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0">
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -573,7 +574,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -758,20 +759,26 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>116816</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2200275</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>116816</xdr:rowOff>
+      <xdr:colOff>4514850</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>75046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Không có mô tả."/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAFC11FB-B584-BB21-2A74-4828F2B2478E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -782,29 +789,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8329882"/>
-          <a:ext cx="7537869" cy="8680330"/>
+          <a:off x="0" y="9563100"/>
+          <a:ext cx="10001250" cy="13219546"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -888,6 +884,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -923,6 +936,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1098,7 +1128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1106,21 +1136,21 @@
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="71.5703125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="6.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="71.5546875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1128,7 +1158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1136,12 +1166,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1169,7 +1199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1181,7 +1211,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
@@ -1189,12 +1219,12 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -1208,7 +1238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1220,7 +1250,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1232,7 +1262,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1244,7 +1274,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -1256,7 +1286,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -1268,7 +1298,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -1280,7 +1310,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>7</v>
       </c>
@@ -1292,12 +1322,12 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
@@ -1311,7 +1341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>56</v>
       </c>
@@ -1325,7 +1355,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>55</v>
       </c>
@@ -1339,7 +1369,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>54</v>
       </c>
@@ -1353,7 +1383,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
@@ -1367,7 +1397,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>52</v>
       </c>
@@ -1381,7 +1411,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>52</v>
       </c>
@@ -1395,12 +1425,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1414,7 +1444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>49</v>
@@ -1426,24 +1456,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="8"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
@@ -1457,7 +1487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
         <v>57</v>
@@ -1467,25 +1497,25 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1493,13 +1523,13 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C26:C27 C22:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C26:C27 C22:C25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pending, In Progress, Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D26" r:id="rId1"/>
-    <hyperlink ref="B37" r:id="rId2"/>
+    <hyperlink ref="D26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B37" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1508,28 +1538,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="71.5703125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="23.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="71.5546875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1537,7 +1567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1545,12 +1575,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1572,7 +1602,7 @@
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>1</v>
       </c>
@@ -1590,7 +1620,7 @@
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>2</v>
       </c>
@@ -1608,7 +1638,7 @@
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20" t="s">
@@ -1622,7 +1652,7 @@
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -1630,7 +1660,7 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1641,7 +1671,7 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -1661,7 +1691,7 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>1</v>
       </c>
@@ -1681,7 +1711,7 @@
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>2</v>
       </c>
@@ -1701,7 +1731,7 @@
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>3</v>
       </c>
@@ -1721,7 +1751,7 @@
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>4</v>
       </c>
@@ -1741,7 +1771,7 @@
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>5</v>
       </c>
@@ -1761,7 +1791,7 @@
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>6</v>
       </c>
@@ -1781,7 +1811,7 @@
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>7</v>
       </c>
@@ -1801,7 +1831,7 @@
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>8</v>
       </c>
@@ -1821,7 +1851,7 @@
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C20" s="21"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
@@ -1830,7 +1860,7 @@
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
@@ -1841,7 +1871,7 @@
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
@@ -1861,7 +1891,7 @@
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>44711</v>
       </c>
@@ -1881,7 +1911,7 @@
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <v>44711</v>
       </c>
@@ -1901,7 +1931,7 @@
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>44713</v>
       </c>
@@ -1921,7 +1951,7 @@
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
         <v>44715</v>
       </c>
@@ -1935,7 +1965,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <v>44716</v>
       </c>
@@ -1949,7 +1979,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>44716</v>
       </c>
@@ -1963,12 +1993,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1982,7 +2012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>66</v>
@@ -1994,24 +2024,24 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="8"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
@@ -2025,7 +2055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
         <v>57</v>
@@ -2035,25 +2065,25 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2064,13 +2094,13 @@
     <mergeCell ref="E5:J25"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C28 C6:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C28 C6:C8" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pending, In Progress, Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B37" r:id="rId1"/>
-    <hyperlink ref="D27" r:id="rId2"/>
+    <hyperlink ref="B37" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D27" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>
@@ -2078,28 +2108,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="71.5703125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="23.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="71.5546875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2107,7 +2137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2115,12 +2145,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -2142,7 +2172,7 @@
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -2160,7 +2190,7 @@
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -2178,7 +2208,7 @@
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -2196,7 +2226,7 @@
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -2214,7 +2244,7 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -2232,7 +2262,7 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -2250,7 +2280,7 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -2268,7 +2298,7 @@
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -2286,7 +2316,7 @@
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -2304,7 +2334,7 @@
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
@@ -2312,7 +2342,7 @@
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
@@ -2323,7 +2353,7 @@
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
@@ -2343,7 +2373,7 @@
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2363,7 +2393,7 @@
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -2383,7 +2413,7 @@
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -2403,7 +2433,7 @@
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -2423,7 +2453,7 @@
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -2443,7 +2473,7 @@
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -2463,7 +2493,7 @@
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>7</v>
       </c>
@@ -2483,7 +2513,7 @@
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>8</v>
       </c>
@@ -2503,7 +2533,7 @@
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>9</v>
       </c>
@@ -2523,15 +2553,15 @@
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
@@ -2545,7 +2575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>44739</v>
       </c>
@@ -2559,7 +2589,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>44740</v>
       </c>
@@ -2573,7 +2603,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>44741</v>
       </c>
@@ -2587,7 +2617,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>44742</v>
       </c>
@@ -2601,7 +2631,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>44713</v>
       </c>
@@ -2615,7 +2645,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>44713</v>
       </c>
@@ -2629,18 +2659,18 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
@@ -2654,7 +2684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
         <v>93</v>
@@ -2666,7 +2696,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="8" t="s">
         <v>94</v>
@@ -2678,18 +2708,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>4</v>
       </c>
@@ -2703,7 +2733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="13" t="s">
         <v>57</v>
@@ -2713,31 +2743,31 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51"/>
     </row>
   </sheetData>
@@ -2745,13 +2775,13 @@
     <mergeCell ref="E5:J26"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30:C36 C6:C14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30:C36 C6:C14" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Pending, In Progress, Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D34" r:id="rId1" display="https://www.youtube.com/watch?v=Fousdqr6Si4&amp;list=PLRkQNsJPRIBc1liQHJogRpePTAR6bMNXr&amp;index=11&amp;t=176s"/>
-    <hyperlink ref="B45" r:id="rId2"/>
+    <hyperlink ref="D34" r:id="rId1" display="https://www.youtube.com/watch?v=Fousdqr6Si4&amp;list=PLRkQNsJPRIBc1liQHJogRpePTAR6bMNXr&amp;index=11&amp;t=176s" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B45" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
